--- a/CatstoryGame/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/CatstoryGame/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="59">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,97 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이름_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름_002</t>
-  </si>
-  <si>
-    <t>이름_003</t>
-  </si>
-  <si>
-    <t>이름_004</t>
-  </si>
-  <si>
-    <t>이름_005</t>
-  </si>
-  <si>
-    <t>이름_006</t>
-  </si>
-  <si>
-    <t>이름_007</t>
-  </si>
-  <si>
-    <t>이름_008</t>
-  </si>
-  <si>
-    <t>이름_009</t>
-  </si>
-  <si>
-    <t>이름_010</t>
-  </si>
-  <si>
-    <t>이름_011</t>
-  </si>
-  <si>
-    <t>이름_012</t>
-  </si>
-  <si>
-    <t>이름_013</t>
-  </si>
-  <si>
-    <t>이름_014</t>
-  </si>
-  <si>
-    <t>이름_015</t>
-  </si>
-  <si>
-    <t>이름_016</t>
-  </si>
-  <si>
-    <t>이름_017</t>
-  </si>
-  <si>
-    <t>이름_018</t>
-  </si>
-  <si>
-    <t>이름_019</t>
-  </si>
-  <si>
-    <t>이름_020</t>
-  </si>
-  <si>
-    <t>이름_021</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 010</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 011</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 012</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 013</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 017</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 018</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 019</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 020</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 021</t>
-  </si>
-  <si>
     <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,75 +65,194 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Character/00001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/00002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BackGround/00001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BackGround/00002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리 반갑지 않는데 왜 이곳에 있지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글쎄 왜 있을까</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장난 하지마라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>만나서 반가워~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재미 없기는 니가 맡은 임무 나랑 합동임무거든</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거짓말 하지마!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말이야 나랑 같이 소장에게 가자구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소장 정말인가요 제가 이녀석이랑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">진짜라니까 그러네 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후후후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅋㅋㅋㅋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅎㅎㅎㅎㅎㅎㅎ</t>
+    <t>비가 오는 추운 골목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길고양이(???)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냐아아아앙(춥고 배고프다냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와아아웅(밥 먹고 싶다냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소녀(???)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어! 고양이다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냥?(무슨 소리지?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와 예쁘다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하악! 으어엉!(저리가라 인간! 물어버린다!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깜짝이야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배가 고파서 그런가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠시만 기다려 고양아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Cat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Kid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먉먁!(깜짝 놀랐다냥!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먉 먀웅?(뭐라는 거냐 저 인간?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mase_tostore</t>
+  </si>
+  <si>
+    <t>고양아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먉!(놀랐잖아 이 망할 인간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하아아아앜1(저리가라냥!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야옹?(츄르?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어어 나비야 저리 가 있어 좀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무것도 아니야 요즘 계속 귀찮게 하네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어 나 혼자 사는데 재까지 챙길 여력이 안돼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀찮기도 하고. . . . .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나비야 잘 살아 난 더 이상 너를 책임 질 수 없어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냥?(집사?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냐나냥?(집사 어디가냥?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야옹 야옹 야옹(나 두고 가지말라냥!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">길고양이(???)의 어린 시절 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>많은 시간이 지나고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미야야오(인간은 정말 나쁘다냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냐아아아(너라면 다시 한 번 믿어도 될까?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짜잔 고양이 사료랑 물이랑 츄르야! 이거 꼭 먹어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 빠이빠이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전주인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이(나비)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어 나한테 다가와 준거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냥냥(절대 용서하지 않을거다냐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와웅 야웅(인간 밉다냥 다시는 믿지 않을 거다냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">야옹아 오늘도 귀엽구나 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야옹 야옹(그래 그래 밥이나 내놔라냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야옹아 나랑 같이 살지 않을래?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먀오…(……..)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냐아아아(그래 잘 부탁해 작은 집사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몇일 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와아! 같이 가자 내가 너의 가족이 되어줄께</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -597,7 +625,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -606,10 +634,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -619,17 +647,15 @@
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -641,7 +667,7 @@
         <v>-100</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -652,16 +678,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -673,7 +699,7 @@
         <v>-100</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -681,19 +707,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -705,7 +731,7 @@
         <v>-100</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -713,19 +739,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -737,7 +763,7 @@
         <v>-100</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -745,19 +771,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -766,10 +792,10 @@
         <v>5</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
+        <v>-100</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -777,19 +803,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -801,7 +827,7 @@
         <v>-100</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -809,19 +835,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -833,7 +859,7 @@
         <v>-100</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -841,19 +867,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -865,7 +891,7 @@
         <v>-100</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -876,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -897,7 +923,7 @@
         <v>-100</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -905,19 +931,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -929,7 +955,7 @@
         <v>-100</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -940,16 +966,16 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -961,7 +987,7 @@
         <v>-100</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -972,16 +998,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -993,7 +1019,7 @@
         <v>-100</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1004,16 +1030,16 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1025,7 +1051,7 @@
         <v>-100</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1036,16 +1062,16 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1057,7 +1083,7 @@
         <v>-100</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1065,19 +1091,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1089,7 +1115,7 @@
         <v>-100</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1097,19 +1123,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1121,7 +1147,7 @@
         <v>-100</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1132,16 +1158,16 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1153,7 +1179,7 @@
         <v>-100</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1161,19 +1187,19 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1185,7 +1211,7 @@
         <v>-100</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1193,19 +1219,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1217,7 +1243,7 @@
         <v>-100</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1228,16 +1254,16 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1249,7 +1275,7 @@
         <v>-100</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1260,29 +1286,667 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>21</v>
+      </c>
+      <c r="I22" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>22</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>23</v>
+      </c>
+      <c r="I24" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>24</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>25</v>
+      </c>
+      <c r="I26" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>26</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
         <v>27</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="I28" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>28</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>29</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>30</v>
+      </c>
+      <c r="I31" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>31</v>
+      </c>
+      <c r="I32" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>32</v>
+      </c>
+      <c r="I33" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>33</v>
+      </c>
+      <c r="I34" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>34</v>
+      </c>
+      <c r="I35" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>35</v>
+      </c>
+      <c r="I36" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
         <v>36</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="I37" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
         <v>37</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="I38" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>-100</v>
-      </c>
-      <c r="I22" s="1">
-        <v>-100</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>38</v>
+      </c>
+      <c r="I39" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>39</v>
+      </c>
+      <c r="I40" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>40</v>
+      </c>
+      <c r="I41" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>41</v>
+      </c>
+      <c r="I42" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/CatstoryGame/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/CatstoryGame/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="66">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,15 +244,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>냐아아아(그래 잘 부탁해 작은 집사)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>몇일 후</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>와아! 같이 가자 내가 너의 가족이 되어줄께</t>
+    <t>와아! 야옹아 내 이름은 고영희야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 내가 너의 가족이 되어줄께</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냐아(그래 작은 인간아)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 나랑 같이 집으로 갈꺼야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먀웅(그래)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그리고 이제부터 너의 이름은 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치즈야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞으로 잘 부탁해 치즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냐아아아(그래 잘 부탁해 집사)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1662,7 +1690,7 @@
         <v>-1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>7</v>
@@ -1883,10 +1911,10 @@
         <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>25</v>
@@ -1918,7 +1946,7 @@
         <v>48</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>24</v>
@@ -1940,13 +1968,45 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="G43" s="1"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D45" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D46" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D47" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D48" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/CatstoryGame/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/CatstoryGame/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/CatstoryGame/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/CatstoryGame/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="109">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,6 +282,135 @@
   <si>
     <t>냐아아아(그래 잘 부탁해 집사)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먀아아아옹 (그러고 보니 예전 집사도...)</t>
+  </si>
+  <si>
+    <t>먀아 야옹(근데 저 인간은....)</t>
+  </si>
+  <si>
+    <t>영희의 집</t>
+  </si>
+  <si>
+    <t>야옹 아니 치즈야 여기가 오늘부터 우리 집이야</t>
+  </si>
+  <si>
+    <t>...야옹(...그래)</t>
+  </si>
+  <si>
+    <t>영희와 치즈는 행복하게 지낸다</t>
+  </si>
+  <si>
+    <t>치즈야 이거 봐바!</t>
+  </si>
+  <si>
+    <t>새로운 낚시대지롱!</t>
+  </si>
+  <si>
+    <t>냐옹!(쥐다!)</t>
+  </si>
+  <si>
+    <t>어두운 밤</t>
+  </si>
+  <si>
+    <t>치즈야 그거 알아?</t>
+  </si>
+  <si>
+    <t>냐아?(뭐가 집사야?)</t>
+  </si>
+  <si>
+    <t>키우던 동물이 먼저 죽으면 무지개다리 건너 하늘나라에서 기다리고 있대</t>
+  </si>
+  <si>
+    <t>치즈도 나 기다려 줄꺼야?</t>
+  </si>
+  <si>
+    <t>야옹 먀아~(그래 집사 대신 집사도 나 기다려야 한다냥)</t>
+  </si>
+  <si>
+    <t>대답해준거야?</t>
+  </si>
+  <si>
+    <t>먕(그래)</t>
+  </si>
+  <si>
+    <t>하늘나라는 구름을 타고 올라가면 도착 할 수 있다고 해</t>
+  </si>
+  <si>
+    <t>그러니까 나중에 나 꼭 만나러 와야해 알았지</t>
+  </si>
+  <si>
+    <t>미오(그래 그래)</t>
+  </si>
+  <si>
+    <t>다음날</t>
+  </si>
+  <si>
+    <t>치즈야 동물병원 가자~</t>
+  </si>
+  <si>
+    <t>그르르릉(병원 싫다 집사야)</t>
+  </si>
+  <si>
+    <t>싫어? 그래도 가야해 치즈</t>
+  </si>
+  <si>
+    <t>동물병원으로 가던 중</t>
+  </si>
+  <si>
+    <t>끼익</t>
+  </si>
+  <si>
+    <t>.....</t>
+  </si>
+  <si>
+    <t>먀?(여긴?)</t>
+  </si>
+  <si>
+    <t>먉! 먉!(집사! 집사야 어디있어)</t>
+  </si>
+  <si>
+    <t>냐앙 냐앙(집사야 집사)</t>
+  </si>
+  <si>
+    <t>많은 시간이 지나고...</t>
+  </si>
+  <si>
+    <t>먕 야옹(여긴 구름이 많네...)</t>
+  </si>
+  <si>
+    <t>냥!(그러고 보니!)</t>
+  </si>
+  <si>
+    <t>먕 냥(구름을 타고 올라가면 하늘나라로 갈 수 있다고 했어)</t>
+  </si>
+  <si>
+    <t>냐 웅냥냥 냥(그럼 이 구름들을 타고 가면 집사가 있는 건가?)</t>
+  </si>
+  <si>
+    <t>야옹 먀아!(그럼 구름 위로 올라가야겠어!)</t>
+  </si>
+  <si>
+    <t>야옹 먀야아옹(이제 더는 올라갈 구름이 없어...)</t>
+  </si>
+  <si>
+    <t>와웅 와웅(집사 어디있냥)</t>
+  </si>
+  <si>
+    <t>치즈야!</t>
+  </si>
+  <si>
+    <t>냥!(집사!)</t>
+  </si>
+  <si>
+    <t>골골골~(집사~)</t>
+  </si>
+  <si>
+    <t>영희와 치즈는 하늘나라에서 행복하게 산다</t>
+  </si>
+  <si>
+    <t>THE END</t>
   </si>
 </sst>
 </file>
@@ -330,13 +459,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="L86" sqref="L86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1047,7 +1179,7 @@
         <v>-100</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1252,8 +1384,8 @@
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>41</v>
+      <c r="D20" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>7</v>
@@ -1285,7 +1417,7 @@
         <v>47</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>7</v>
@@ -1317,7 +1449,7 @@
         <v>47</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>7</v>
@@ -1349,7 +1481,7 @@
         <v>47</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>7</v>
@@ -1381,7 +1513,7 @@
         <v>47</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>7</v>
@@ -1409,7 +1541,9 @@
       <c r="B25" s="1">
         <v>-1</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E25" s="1" t="s">
         <v>7</v>
       </c>
@@ -1439,9 +1573,7 @@
       <c r="C26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
         <v>7</v>
       </c>
@@ -1472,7 +1604,7 @@
         <v>48</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>24</v>
@@ -1504,7 +1636,7 @@
         <v>48</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>24</v>
@@ -1536,7 +1668,7 @@
         <v>48</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>24</v>
@@ -1565,7 +1697,7 @@
         <v>-1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>7</v>
@@ -1597,7 +1729,7 @@
         <v>48</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>24</v>
@@ -1629,7 +1761,7 @@
         <v>48</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>24</v>
@@ -1661,7 +1793,7 @@
         <v>48</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>24</v>
@@ -1690,7 +1822,7 @@
         <v>-1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>7</v>
@@ -1721,8 +1853,8 @@
       <c r="C35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>52</v>
+      <c r="D35" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>25</v>
@@ -1754,7 +1886,7 @@
         <v>48</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>24</v>
@@ -1786,7 +1918,7 @@
         <v>16</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>25</v>
@@ -1818,7 +1950,7 @@
         <v>48</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>24</v>
@@ -1850,7 +1982,7 @@
         <v>48</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>24</v>
@@ -1882,7 +2014,7 @@
         <v>16</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>25</v>
@@ -1914,7 +2046,7 @@
         <v>48</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>25</v>
@@ -1946,7 +2078,7 @@
         <v>48</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>24</v>
@@ -1968,45 +2100,1622 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
       <c r="D43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G43" s="1"/>
-      <c r="I43" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>42</v>
+      </c>
+      <c r="I43" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>43</v>
+      </c>
+      <c r="I44" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>44</v>
+      </c>
+      <c r="I45" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D45" s="1" t="s">
+      <c r="E46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>45</v>
+      </c>
+      <c r="I46" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D46" s="1" t="s">
+      <c r="E47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>46</v>
+      </c>
+      <c r="I47" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D47" s="1" t="s">
+      <c r="E48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>47</v>
+      </c>
+      <c r="I48" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D48" s="1" t="s">
+      <c r="E49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>48</v>
+      </c>
+      <c r="I49" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D49" s="1" t="s">
+      <c r="E50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>49</v>
+      </c>
+      <c r="I50" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D50" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>50</v>
+      </c>
+      <c r="I51" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>51</v>
+      </c>
+      <c r="I52" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>52</v>
+      </c>
+      <c r="I53" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>53</v>
+      </c>
+      <c r="I54" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>54</v>
+      </c>
+      <c r="I55" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>55</v>
+      </c>
+      <c r="I56" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>56</v>
+      </c>
+      <c r="I57" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>57</v>
+      </c>
+      <c r="I58" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>58</v>
+      </c>
+      <c r="I59" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>59</v>
+      </c>
+      <c r="I60" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>60</v>
+      </c>
+      <c r="I61" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>61</v>
+      </c>
+      <c r="I62" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>62</v>
+      </c>
+      <c r="I63" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>63</v>
+      </c>
+      <c r="I64" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>64</v>
+      </c>
+      <c r="I65" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>65</v>
+      </c>
+      <c r="I66" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>66</v>
+      </c>
+      <c r="I67" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>67</v>
+      </c>
+      <c r="I68" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1">
+        <v>68</v>
+      </c>
+      <c r="I69" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>69</v>
+      </c>
+      <c r="I70" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>70</v>
+      </c>
+      <c r="I71" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>71</v>
+      </c>
+      <c r="I72" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>72</v>
+      </c>
+      <c r="I73" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1">
+        <v>73</v>
+      </c>
+      <c r="I74" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>74</v>
+      </c>
+      <c r="I75" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1">
+        <v>75</v>
+      </c>
+      <c r="I76" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1">
+        <v>76</v>
+      </c>
+      <c r="I77" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" s="1">
+        <v>77</v>
+      </c>
+      <c r="I78" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1">
+        <v>78</v>
+      </c>
+      <c r="I79" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1">
+        <v>79</v>
+      </c>
+      <c r="I80" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1">
+        <v>1</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+      <c r="H81" s="1">
+        <v>80</v>
+      </c>
+      <c r="I81" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+      <c r="H82" s="1">
+        <v>81</v>
+      </c>
+      <c r="I82" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="1">
+        <v>82</v>
+      </c>
+      <c r="I83" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+      <c r="H84" s="1">
+        <v>83</v>
+      </c>
+      <c r="I84" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+      <c r="H85" s="1">
+        <v>84</v>
+      </c>
+      <c r="I85" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1">
+        <v>85</v>
+      </c>
+      <c r="I86" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1">
+        <v>86</v>
+      </c>
+      <c r="I87" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+      <c r="H88" s="1">
+        <v>87</v>
+      </c>
+      <c r="I88" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1">
+        <v>88</v>
+      </c>
+      <c r="I89" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+      <c r="H90" s="1">
+        <v>89</v>
+      </c>
+      <c r="I90" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+      <c r="H91" s="1">
+        <v>90</v>
+      </c>
+      <c r="I91" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1">
+        <v>91</v>
+      </c>
+      <c r="I92" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="I112" s="1"/>
+    </row>
+    <row r="113" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="I113" s="1"/>
+    </row>
+    <row r="114" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="I114" s="1"/>
+    </row>
+    <row r="115" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="I115" s="1"/>
+    </row>
+    <row r="116" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="I116" s="1"/>
+    </row>
+    <row r="117" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="I117" s="1"/>
+    </row>
+    <row r="118" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="I118" s="1"/>
+    </row>
+    <row r="119" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="I119" s="1"/>
+    </row>
+    <row r="120" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="I121" s="1"/>
+    </row>
+    <row r="122" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="I122" s="1"/>
+    </row>
+    <row r="123" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="I123" s="1"/>
+    </row>
+    <row r="124" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="I124" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/CatstoryGame/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/CatstoryGame/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="136">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,41 +113,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>잠시만 기다려 고양아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/Cat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/Kid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>먉먁!(깜짝 놀랐다냥!)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>먉 먀웅?(뭐라는 거냐 저 인간?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mase_tostore</t>
-  </si>
-  <si>
     <t>고양아!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>먉!(놀랐잖아 이 망할 인간)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하아아아앜1(저리가라냥!)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>야옹?(츄르?)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,106 +280,245 @@
     <t>냐옹!(쥐다!)</t>
   </si>
   <si>
+    <t>치즈야 그거 알아?</t>
+  </si>
+  <si>
+    <t>냐아?(뭐가 집사야?)</t>
+  </si>
+  <si>
+    <t>키우던 동물이 먼저 죽으면 무지개다리 건너 하늘나라에서 기다리고 있대</t>
+  </si>
+  <si>
+    <t>치즈도 나 기다려 줄꺼야?</t>
+  </si>
+  <si>
+    <t>야옹 먀아~(그래 집사 대신 집사도 나 기다려야 한다냥)</t>
+  </si>
+  <si>
+    <t>대답해준거야?</t>
+  </si>
+  <si>
+    <t>먕(그래)</t>
+  </si>
+  <si>
+    <t>하늘나라는 구름을 타고 올라가면 도착 할 수 있다고 해</t>
+  </si>
+  <si>
+    <t>그러니까 나중에 나 꼭 만나러 와야해 알았지</t>
+  </si>
+  <si>
+    <t>미오(그래 그래)</t>
+  </si>
+  <si>
+    <t>다음날</t>
+  </si>
+  <si>
+    <t>치즈야 동물병원 가자~</t>
+  </si>
+  <si>
+    <t>그르르릉(병원 싫다 집사야)</t>
+  </si>
+  <si>
+    <t>싫어? 그래도 가야해 치즈</t>
+  </si>
+  <si>
+    <t>동물병원으로 가던 중</t>
+  </si>
+  <si>
+    <t>끼익</t>
+  </si>
+  <si>
+    <t>.....</t>
+  </si>
+  <si>
+    <t>먀?(여긴?)</t>
+  </si>
+  <si>
+    <t>냐앙 냐앙(집사야 집사)</t>
+  </si>
+  <si>
+    <t>많은 시간이 지나고...</t>
+  </si>
+  <si>
+    <t>냥!(그러고 보니!)</t>
+  </si>
+  <si>
+    <t>먕 냥(구름을 타고 올라가면 하늘나라로 갈 수 있다고 했어)</t>
+  </si>
+  <si>
+    <t>냐 웅냥냥 냥(그럼 이 구름들을 타고 가면 집사가 있는 건가?)</t>
+  </si>
+  <si>
+    <t>야옹 먀아!(그럼 구름 위로 올라가야겠어!)</t>
+  </si>
+  <si>
+    <t>야옹 먀야아옹(이제 더는 올라갈 구름이 없어...)</t>
+  </si>
+  <si>
+    <t>와웅 와웅(집사 어디있냥)</t>
+  </si>
+  <si>
+    <t>치즈야!</t>
+  </si>
+  <si>
+    <t>냥!(집사!)</t>
+  </si>
+  <si>
+    <t>영희와 치즈는 하늘나라에서 행복하게 산다</t>
+  </si>
+  <si>
+    <t>Character/Cat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Kid1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Cat1</t>
+  </si>
+  <si>
+    <t>Character/Cat1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Cat2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Kid2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Kid3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이젠 나도 힘들어. . .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전주인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Cat3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Kid4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>어두운 밤</t>
-  </si>
-  <si>
-    <t>치즈야 그거 알아?</t>
-  </si>
-  <si>
-    <t>냐아?(뭐가 집사야?)</t>
-  </si>
-  <si>
-    <t>키우던 동물이 먼저 죽으면 무지개다리 건너 하늘나라에서 기다리고 있대</t>
-  </si>
-  <si>
-    <t>치즈도 나 기다려 줄꺼야?</t>
-  </si>
-  <si>
-    <t>야옹 먀아~(그래 집사 대신 집사도 나 기다려야 한다냥)</t>
-  </si>
-  <si>
-    <t>대답해준거야?</t>
-  </si>
-  <si>
-    <t>먕(그래)</t>
-  </si>
-  <si>
-    <t>하늘나라는 구름을 타고 올라가면 도착 할 수 있다고 해</t>
-  </si>
-  <si>
-    <t>그러니까 나중에 나 꼭 만나러 와야해 알았지</t>
-  </si>
-  <si>
-    <t>미오(그래 그래)</t>
-  </si>
-  <si>
-    <t>다음날</t>
-  </si>
-  <si>
-    <t>치즈야 동물병원 가자~</t>
-  </si>
-  <si>
-    <t>그르르릉(병원 싫다 집사야)</t>
-  </si>
-  <si>
-    <t>싫어? 그래도 가야해 치즈</t>
-  </si>
-  <si>
-    <t>동물병원으로 가던 중</t>
-  </si>
-  <si>
-    <t>끼익</t>
-  </si>
-  <si>
-    <t>.....</t>
-  </si>
-  <si>
-    <t>먀?(여긴?)</t>
-  </si>
-  <si>
-    <t>먉! 먉!(집사! 집사야 어디있어)</t>
-  </si>
-  <si>
-    <t>냐앙 냐앙(집사야 집사)</t>
-  </si>
-  <si>
-    <t>많은 시간이 지나고...</t>
-  </si>
-  <si>
-    <t>먕 야옹(여긴 구름이 많네...)</t>
-  </si>
-  <si>
-    <t>냥!(그러고 보니!)</t>
-  </si>
-  <si>
-    <t>먕 냥(구름을 타고 올라가면 하늘나라로 갈 수 있다고 했어)</t>
-  </si>
-  <si>
-    <t>냐 웅냥냥 냥(그럼 이 구름들을 타고 가면 집사가 있는 건가?)</t>
-  </si>
-  <si>
-    <t>야옹 먀아!(그럼 구름 위로 올라가야겠어!)</t>
-  </si>
-  <si>
-    <t>야옹 먀야아옹(이제 더는 올라갈 구름이 없어...)</t>
-  </si>
-  <si>
-    <t>와웅 와웅(집사 어디있냥)</t>
-  </si>
-  <si>
-    <t>치즈야!</t>
-  </si>
-  <si>
-    <t>냥!(집사!)</t>
-  </si>
-  <si>
-    <t>골골골~(집사~)</t>
-  </si>
-  <si>
-    <t>영희와 치즈는 하늘나라에서 행복하게 산다</t>
-  </si>
-  <si>
-    <t>THE END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먀아...(잠깐 졸았다냥…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야~옹 냥냥(다시 집사를 찾으러 가야한다냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냐아오옹(빨리 찾으러 가야하는데)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야옹 야옹(아무리 찾아도 안보인다냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먕 야옹 나냥?(구름이 가득한 곳에 있다냥?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먕 냐아아앙(방금 전에는 길에 있었는데)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냐아아아?(그러고 보니 여긴 어디지?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골골골!~(집사 보고싶었다냥!~)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치즈</t>
+  </si>
+  <si>
+    <t>치즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하아아아앜(저리가라냥!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냐냥 냥!(깜짝 놀랐다냥!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먀웅?(뭐라는 거냐 저 인간?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냐앙!(깜짝 놀랐잖냥 인간!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maze_tostore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">잠시만 기다려 고양아 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cat_Cloud</t>
+  </si>
+  <si>
+    <t>Fin_Scene</t>
+  </si>
+  <si>
+    <t>Character/BadWomen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냐! 냐!(집사! 집사야 어디있어)</t>
+  </si>
+  <si>
+    <t>BackGround/00002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/Heaven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -752,14 +860,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="L86" sqref="L86"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="57.375" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="25.125" customWidth="1"/>
@@ -844,7 +952,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -876,7 +984,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
@@ -908,7 +1016,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
@@ -940,7 +1048,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
@@ -972,7 +1080,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>7</v>
@@ -1001,10 +1109,10 @@
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>7</v>
@@ -1036,7 +1144,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
@@ -1068,7 +1176,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>7</v>
@@ -1100,7 +1208,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>7</v>
@@ -1129,10 +1237,10 @@
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>7</v>
@@ -1161,10 +1269,10 @@
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>7</v>
@@ -1179,7 +1287,7 @@
         <v>-100</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1193,13 +1301,13 @@
         <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1225,10 +1333,10 @@
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>7</v>
@@ -1257,10 +1365,10 @@
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>7</v>
@@ -1289,10 +1397,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>7</v>
@@ -1321,10 +1429,10 @@
         <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>7</v>
@@ -1353,10 +1461,10 @@
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -1379,16 +1487,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>7</v>
@@ -1413,17 +1521,15 @@
       <c r="B21" s="1">
         <v>0</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1446,13 +1552,13 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>7</v>
@@ -1478,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>7</v>
@@ -1510,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>7</v>
@@ -1539,13 +1645,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>7</v>
@@ -1571,11 +1680,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="E26" s="1" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>7</v>
@@ -1598,19 +1709,19 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -1633,13 +1744,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>7</v>
@@ -1665,13 +1776,13 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>7</v>
@@ -1694,13 +1805,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>7</v>
@@ -1723,16 +1837,14 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>7</v>
@@ -1758,13 +1870,13 @@
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>7</v>
@@ -1790,13 +1902,13 @@
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>7</v>
@@ -1819,13 +1931,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>7</v>
@@ -1848,16 +1963,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>7</v>
@@ -1880,16 +1995,14 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>7</v>
@@ -1918,10 +2031,10 @@
         <v>16</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>7</v>
@@ -1947,13 +2060,13 @@
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>7</v>
@@ -1976,16 +2089,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>7</v>
@@ -2008,16 +2121,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>7</v>
@@ -2040,16 +2153,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>7</v>
@@ -2072,16 +2185,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>7</v>
@@ -2104,13 +2217,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>7</v>
@@ -2133,14 +2249,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>1</v>
-      </c>
-      <c r="C44" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D44" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>7</v>
@@ -2163,13 +2281,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>7</v>
@@ -2192,13 +2313,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>7</v>
@@ -2223,11 +2347,14 @@
       <c r="B47" s="1">
         <v>0</v>
       </c>
+      <c r="C47" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="D47" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -2250,13 +2377,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>7</v>
@@ -2281,11 +2411,14 @@
       <c r="B49" s="1">
         <v>0</v>
       </c>
+      <c r="C49" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="D49" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>7</v>
@@ -2308,13 +2441,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>7</v>
@@ -2339,11 +2475,14 @@
       <c r="B51" s="1">
         <v>1</v>
       </c>
+      <c r="C51" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="D51" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>7</v>
@@ -2369,13 +2508,13 @@
         <v>0</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
@@ -2397,11 +2536,14 @@
       <c r="B53" s="1">
         <v>0</v>
       </c>
+      <c r="C53" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="D53" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>7</v>
@@ -2426,11 +2568,14 @@
       <c r="B54" s="1">
         <v>1</v>
       </c>
+      <c r="C54" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="D54" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>7</v>
@@ -2455,8 +2600,9 @@
       <c r="B55" s="1">
         <v>0</v>
       </c>
+      <c r="C55" s="1"/>
       <c r="D55" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>7</v>
@@ -2482,13 +2628,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>7</v>
@@ -2511,16 +2660,19 @@
         <v>55</v>
       </c>
       <c r="B57" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="G57" s="1">
         <v>0</v>
@@ -2540,13 +2692,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>7</v>
@@ -2572,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -2600,11 +2755,14 @@
       <c r="B60" s="1">
         <v>0</v>
       </c>
+      <c r="C60" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="D60" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>7</v>
@@ -2629,11 +2787,14 @@
       <c r="B61" s="1">
         <v>1</v>
       </c>
+      <c r="C61" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="D61" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>7</v>
@@ -2658,11 +2819,14 @@
       <c r="B62" s="1">
         <v>0</v>
       </c>
+      <c r="C62" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="D62" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>7</v>
@@ -2685,13 +2849,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>7</v>
@@ -2714,13 +2881,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>7</v>
@@ -2743,13 +2913,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>7</v>
@@ -2772,13 +2945,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>7</v>
@@ -2801,13 +2977,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>7</v>
@@ -2832,11 +3011,14 @@
       <c r="B68" s="1">
         <v>0</v>
       </c>
+      <c r="C68" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="D68" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>7</v>
@@ -2859,13 +3041,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>7</v>
@@ -2888,10 +3073,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>7</v>
@@ -2917,13 +3102,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>7</v>
@@ -2946,13 +3134,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>7</v>
@@ -2975,13 +3166,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>7</v>
@@ -3004,16 +3198,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G74" s="1">
         <v>0</v>
@@ -3036,13 +3230,13 @@
         <v>0</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="G75" s="1">
         <v>0</v>
@@ -3062,10 +3256,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>7</v>
@@ -3093,14 +3287,17 @@
       <c r="B77" s="1">
         <v>1</v>
       </c>
+      <c r="C77" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="D77" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="G77" s="1">
         <v>0</v>
@@ -3120,13 +3317,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>7</v>
@@ -3151,11 +3351,14 @@
       <c r="B79" s="1">
         <v>1</v>
       </c>
+      <c r="C79" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="D79" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>7</v>
@@ -3180,8 +3383,9 @@
       <c r="B80" s="1">
         <v>0</v>
       </c>
+      <c r="C80" s="1"/>
       <c r="D80" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>7</v>
@@ -3209,11 +3413,14 @@
       <c r="B81" s="1">
         <v>1</v>
       </c>
+      <c r="C81" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="D81" s="3" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>7</v>
@@ -3236,13 +3443,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>7</v>
@@ -3267,11 +3477,14 @@
       <c r="B83" s="1">
         <v>1</v>
       </c>
+      <c r="C83" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="D83" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>7</v>
@@ -3294,13 +3507,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>7</v>
@@ -3323,13 +3539,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>7</v>
@@ -3354,11 +3573,14 @@
       <c r="B86" s="1">
         <v>1</v>
       </c>
+      <c r="C86" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="D86" s="3" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>7</v>
@@ -3383,11 +3605,14 @@
       <c r="B87" s="1">
         <v>1</v>
       </c>
+      <c r="C87" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="D87" s="3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>7</v>
@@ -3410,13 +3635,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>7</v>
@@ -3439,13 +3667,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>7</v>
@@ -3468,13 +3699,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>7</v>
@@ -3499,11 +3733,14 @@
       <c r="B91" s="1">
         <v>1</v>
       </c>
+      <c r="C91" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="D91" s="3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>7</v>
@@ -3518,7 +3755,7 @@
         <v>-100</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -3526,16 +3763,19 @@
         <v>90</v>
       </c>
       <c r="B92" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="G92" s="1">
         <v>0</v>
@@ -3547,116 +3787,247 @@
         <v>-100</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="I93" s="1"/>
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1">
+        <v>92</v>
+      </c>
+      <c r="I93" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="I94" s="1"/>
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+      <c r="H94" s="1">
+        <v>93</v>
+      </c>
+      <c r="I94" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="I95" s="1"/>
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1">
+        <v>94</v>
+      </c>
+      <c r="I95" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1">
+        <v>95</v>
+      </c>
+      <c r="I96" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1">
+        <v>1</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1">
+        <v>96</v>
+      </c>
+      <c r="I97" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="D98" s="3"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="I112" s="1"/>

--- a/CatstoryGame/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/CatstoryGame/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -860,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3297,7 +3297,7 @@
         <v>99</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="G77" s="1">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         <v>99</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="G81" s="1">
         <v>0</v>
